--- a/users.xlsx
+++ b/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\interactive_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TelegramBOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED1EC6-3CB6-4621-9E02-FE7F40F4539F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA77883-3D21-467D-B157-792400D9488B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>cuongtv18</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -375,84 +378,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>784093829</v>
+      </c>
+      <c r="C2">
         <v>2484767</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>84856852624</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1442776649</v>
+      </c>
+      <c r="C3">
         <v>2358245</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>84394880604</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>1396995011</v>
+      </c>
+      <c r="C4">
         <v>2258165</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>84376091463</v>
       </c>
     </row>
